--- a/teaching/meca-4107/5-predicciones/table.xlsx
+++ b/teaching/meca-4107/5-predicciones/table.xlsx
@@ -1,64 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduard-martinez/Dropbox/web_page/my_web_page/teaching/meca-4107/5-predicciones/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C72A3D4-67B4-5446-81D9-79CFD338F8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$B$2:$E$2</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensitivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specificity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200222692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201818624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201920102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202121008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202121021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prediccion_AMBH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prediccion_AndresTorres</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>200222692</t>
+  </si>
+  <si>
+    <t>201818624</t>
+  </si>
+  <si>
+    <t>201920102</t>
+  </si>
+  <si>
+    <t>202121008</t>
+  </si>
+  <si>
+    <t>202121021</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Paolo</t>
+  </si>
+  <si>
+    <t>Prediccion_AMBH</t>
+  </si>
+  <si>
+    <t>Prediccion_AndresTorres</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -66,16 +82,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,17 +157,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -375,155 +505,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.93861209964412795</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.91638828846531695</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.97246333433103904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.91536180308422299</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.88524268029082298</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.96123914995510296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.640925266903915</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.973177441540578</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.134839868302903</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="C5" s="6">
+        <v>0.64092526690391505</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.97317744154057795</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.13483986830290301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.915361803084223</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.885242680290823</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.961239149955103</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="C6" s="6">
+        <v>0.62538552787663104</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.667223423069365</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.56165818617180496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.62455516014234902</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.66034584397720597</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.57003891050583699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.54608540925266902</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.57290233837689097</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.50523795270877003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.625385527876631</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.667223423069365</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.561658186171805</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.533867141162515</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.55826292002358</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.496707572583059</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.546085409252669</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.572902338376891</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.50523795270877</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="C9" s="6">
+        <v>0.53386714116251499</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.55826292002358002</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.49670757258305898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.938612099644128</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.916388288465317</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.972463334331039</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="C10" s="6">
+        <v>0.53131672597864799</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.56543525250540405</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.47934750074827898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.531316725978648</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.565435252505404</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.479347500748279</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.5214709371293</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="C11" s="6">
+        <v>0.52147093712930004</v>
+      </c>
+      <c r="D11" s="6">
         <v>0.513067400275103</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.534271176294523</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.624555160142349</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.660345843977206</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.570038910505837</v>
+      <c r="E11" s="6">
+        <v>0.53427117629452303</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E11">
+      <sortCondition descending="1" ref="C2:C11"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>